--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2757972.239204985</v>
+        <v>2755402.445834458</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205923</v>
+        <v>9964927.035287933</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431048</v>
+        <v>430763.7823717222</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9122799.152013343</v>
+        <v>9122957.578688119</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>118.0992256993566</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>139.1296354848078</v>
+        <v>67.25025504144588</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>176.9102945984801</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>116.4866385018648</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>266.6210949690529</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>290.8783469293136</v>
       </c>
       <c r="C8" t="n">
-        <v>237.1266428210638</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>262.5770567221875</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>128.7835007017905</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081973</v>
+        <v>84.6125906008198</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.0240632056146</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T12" t="n">
         <v>188.3907690366107</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.55365222481611</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>111.3598553131438</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108372</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>86.302856692562</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>82.96773436094712</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119259</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>18.56378395870772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520978</v>
       </c>
     </row>
     <row r="20">
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>153.4525438190209</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T22" t="n">
-        <v>89.97676987683262</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>100.1467913932381</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.0648329620458</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127569</v>
       </c>
       <c r="H26" t="n">
         <v>283.5630920045443</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>116.4753847680247</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
-        <v>33.26025621763422</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119562</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.9266818458873</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>47.63520452013586</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
         <v>140.4539897919539</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S34" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3244,7 +3244,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>49.33997274159945</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>56.93249644768851</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S37" t="n">
-        <v>33.26025621763692</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
         <v>286.1854515484204</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>20.38088071884248</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
-        <v>38.03682829123536</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H41" t="n">
         <v>283.5630920045443</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2.762447262064999</v>
       </c>
       <c r="H43" t="n">
-        <v>38.0368282912351</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>9.43427371450322</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>125.2851635392057</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>751.6104138473588</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1528.349585887292</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1138.210253911481</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4413,7 +4413,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.6044479702274</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>587.5939988682447</v>
+        <v>512.0527750937034</v>
       </c>
       <c r="U4" t="n">
-        <v>587.5939988682447</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V4" t="n">
-        <v>587.5939988682447</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W4" t="n">
-        <v>587.5939988682447</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X4" t="n">
-        <v>359.6044479702274</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.6044479702274</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1138.210253911481</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.210253911481</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
         <v>959.5129866402885</v>
@@ -4562,31 +4562,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4598,19 +4598,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="X5" t="n">
-        <v>1528.349585887292</v>
+        <v>2094.517857286973</v>
       </c>
       <c r="Y5" t="n">
-        <v>1138.210253911481</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1584.823100673951</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C8" t="n">
-        <v>1345.301239238533</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y8" t="n">
-        <v>1584.823100673951</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>184.0273259635872</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>184.0273259635872</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127633</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160733</v>
       </c>
       <c r="I11" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507193</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384002</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294984</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234015</v>
+        <v>2234.29847123402</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.583449151125</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610262</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q11" t="n">
         <v>4566.333620403614</v>
@@ -5072,19 +5072,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="12">
@@ -5109,7 +5109,7 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H12" t="n">
         <v>93.84834815160704</v>
@@ -5118,28 +5118,28 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160704</v>
+        <v>241.4963299034526</v>
       </c>
       <c r="K12" t="n">
-        <v>93.84834815160704</v>
+        <v>572.0050724668107</v>
       </c>
       <c r="L12" t="n">
-        <v>142.676769632785</v>
+        <v>1062.737405310561</v>
       </c>
       <c r="M12" t="n">
-        <v>734.6951238849127</v>
+        <v>1654.755759562688</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.851722962023</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>2287.92487647661</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.92487647661</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.6744839468082</v>
+        <v>495.095714947596</v>
       </c>
       <c r="C13" t="n">
-        <v>697.7383010189013</v>
+        <v>495.095714947596</v>
       </c>
       <c r="D13" t="n">
-        <v>697.7383010189013</v>
+        <v>495.095714947596</v>
       </c>
       <c r="E13" t="n">
-        <v>549.8252074365082</v>
+        <v>382.6110126110871</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9352599385978</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="G13" t="n">
-        <v>235.7210651131766</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H13" t="n">
         <v>93.84834815160704</v>
@@ -5197,52 +5197,52 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411607</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117239</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948575</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139316</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931023</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062231</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.526309819383</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213658</v>
       </c>
       <c r="Y13" t="n">
-        <v>897.5367589213699</v>
+        <v>676.7441797778357</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5264,10 +5264,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160704</v>
@@ -5276,16 +5276,16 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N14" t="n">
         <v>2971.583449151121</v>
@@ -5309,19 +5309,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>94.88738072612963</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J15" t="n">
-        <v>94.88738072612963</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K15" t="n">
-        <v>94.88738072612963</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L15" t="n">
-        <v>142.676769632785</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849127</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284249</v>
+        <v>1685.872401284422</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1099.422008959557</v>
+        <v>699.941846848844</v>
       </c>
       <c r="C16" t="n">
-        <v>930.4858260316502</v>
+        <v>699.941846848844</v>
       </c>
       <c r="D16" t="n">
-        <v>780.3691866193144</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="E16" t="n">
-        <v>632.4560930369213</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="F16" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5461,25 +5461,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2429.412499335695</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T16" t="n">
-        <v>2342.237896615935</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U16" t="n">
-        <v>2053.161682930662</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V16" t="n">
-        <v>1798.477194724775</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W16" t="n">
-        <v>1509.060024687814</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X16" t="n">
-        <v>1281.070473789797</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y16" t="n">
-        <v>1281.070473789797</v>
+        <v>881.5903116790837</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963557</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
         <v>93.84834815160703</v>
@@ -5516,22 +5516,22 @@
         <v>373.3442236507207</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384034</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883218</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q17" t="n">
         <v>4566.333620403612</v>
@@ -5592,28 +5592,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L18" t="n">
-        <v>107.3505653988713</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M18" t="n">
-        <v>699.3689196509997</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N18" t="n">
-        <v>1321.464883050337</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O18" t="n">
-        <v>1868.341358050532</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>2287.924876476608</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
         <v>2553.812354695766</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.791123359144</v>
+        <v>495.0957149475997</v>
       </c>
       <c r="C19" t="n">
-        <v>847.854940431237</v>
+        <v>326.1595320196928</v>
       </c>
       <c r="D19" t="n">
-        <v>697.7383010189012</v>
+        <v>176.0428926073571</v>
       </c>
       <c r="E19" t="n">
-        <v>549.8252074365081</v>
+        <v>176.0428926073571</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385978</v>
+        <v>176.0428926073571</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5695,28 +5695,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S19" t="n">
-        <v>2429.412499335697</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T19" t="n">
-        <v>2209.733717050079</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U19" t="n">
-        <v>1920.657503364806</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V19" t="n">
-        <v>1665.973015158919</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.221718230931</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.232167332914</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.439588189384</v>
+        <v>676.7441797778395</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160706</v>
@@ -5756,16 +5756,16 @@
         <v>842.9746074384032</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P20" t="n">
         <v>4202.751434297605</v>
@@ -5835,22 +5835,22 @@
         <v>573.0441050413352</v>
       </c>
       <c r="L21" t="n">
-        <v>1063.776437885087</v>
+        <v>573.0441050413352</v>
       </c>
       <c r="M21" t="n">
-        <v>1063.776437885087</v>
+        <v>1154.278642310987</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.872401284424</v>
+        <v>1776.374605710324</v>
       </c>
       <c r="O21" t="n">
-        <v>2232.74887628462</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P21" t="n">
-        <v>2287.924876476608</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q21" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
         <v>2553.812354695766</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.9184063975742</v>
+        <v>562.9550599891011</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9822234696674</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8655840573316</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="E22" t="n">
         <v>407.9524904749385</v>
@@ -5935,25 +5935,25 @@
         <v>2429.412499335697</v>
       </c>
       <c r="S22" t="n">
-        <v>2429.412499335697</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.526873197482</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.450659512209</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.766171306322</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.349001269361</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.359450371344</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.566871227814</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>93.84834815160725</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507207</v>
+        <v>424.1437450015135</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384034</v>
+        <v>893.7741287891961</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294972</v>
       </c>
       <c r="M23" t="n">
         <v>2234.29847123401</v>
@@ -6063,22 +6063,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034533</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668126</v>
+        <v>425.396123289489</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310565</v>
+        <v>916.128456133241</v>
       </c>
       <c r="M24" t="n">
-        <v>1654.755759562693</v>
+        <v>1508.146810385369</v>
       </c>
       <c r="N24" t="n">
-        <v>1654.755759562693</v>
+        <v>1508.146810385369</v>
       </c>
       <c r="O24" t="n">
         <v>1868.341358050532</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.5769285337227</v>
+        <v>744.6035248193408</v>
       </c>
       <c r="C25" t="n">
-        <v>680.6407456058158</v>
+        <v>575.6673418914339</v>
       </c>
       <c r="D25" t="n">
-        <v>530.5241061934801</v>
+        <v>425.5507024790982</v>
       </c>
       <c r="E25" t="n">
-        <v>382.6110126110869</v>
+        <v>277.637608896705</v>
       </c>
       <c r="F25" t="n">
-        <v>235.7210651131766</v>
+        <v>277.637608896705</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>277.637608896705</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6172,25 +6172,25 @@
         <v>2429.412499335697</v>
       </c>
       <c r="S25" t="n">
-        <v>2313.18539533363</v>
+        <v>2246.242309074627</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.18539533363</v>
+        <v>2026.563526789009</v>
       </c>
       <c r="U25" t="n">
-        <v>2024.109181648357</v>
+        <v>1737.487313103736</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.42469344247</v>
+        <v>1482.802824897849</v>
       </c>
       <c r="W25" t="n">
-        <v>1480.00752340551</v>
+        <v>1193.385654860888</v>
       </c>
       <c r="X25" t="n">
-        <v>1252.017972507492</v>
+        <v>965.3961039628709</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.225393363962</v>
+        <v>744.6035248193408</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507198</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384016</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6300,28 +6300,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>242.5353624779755</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K27" t="n">
-        <v>573.0441050413342</v>
+        <v>424.3570907149663</v>
       </c>
       <c r="L27" t="n">
-        <v>1063.776437885085</v>
+        <v>915.0894235587183</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.794792137213</v>
+        <v>915.0894235587183</v>
       </c>
       <c r="N27" t="n">
-        <v>2098.90263203578</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O27" t="n">
-        <v>2098.90263203578</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P27" t="n">
-        <v>2518.486150461856</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q27" t="n">
         <v>2518.486150461856</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>932.2078141341359</v>
+        <v>676.7441797778425</v>
       </c>
       <c r="C28" t="n">
-        <v>763.271631206229</v>
+        <v>559.092275971757</v>
       </c>
       <c r="D28" t="n">
-        <v>613.1549917938933</v>
+        <v>408.9756365594213</v>
       </c>
       <c r="E28" t="n">
-        <v>465.2418982115001</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F28" t="n">
-        <v>318.3519507135898</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S28" t="n">
-        <v>2395.816280934044</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T28" t="n">
-        <v>2395.816280934044</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U28" t="n">
-        <v>2106.740067248771</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V28" t="n">
-        <v>1852.055579042884</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W28" t="n">
-        <v>1562.638409005923</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X28" t="n">
-        <v>1334.648858107906</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.856278964376</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883218</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.534099052813</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6537,28 +6537,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>242.5353624779755</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K30" t="n">
-        <v>573.0441050413343</v>
+        <v>107.3505653988713</v>
       </c>
       <c r="L30" t="n">
-        <v>1063.776437885086</v>
+        <v>107.3505653988713</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.794792137213</v>
+        <v>699.3689196509997</v>
       </c>
       <c r="N30" t="n">
-        <v>2277.890755536549</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O30" t="n">
-        <v>2287.924876476609</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476609</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q30" t="n">
         <v>2518.486150461856</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.791123359144</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C31" t="n">
-        <v>847.854940431237</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D31" t="n">
-        <v>697.7383010189012</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="E31" t="n">
-        <v>549.8252074365081</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.9352599385978</v>
+        <v>176.0428926073602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
         <v>93.84834815160703</v>
@@ -6619,52 +6619,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S31" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T31" t="n">
-        <v>2361.553154294196</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U31" t="n">
-        <v>2072.476940608923</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V31" t="n">
-        <v>1817.792452403036</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W31" t="n">
-        <v>1528.375282366075</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X31" t="n">
-        <v>1300.385731468058</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.439588189384</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507198</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384016</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
@@ -6774,28 +6774,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>94.88738072612961</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="J33" t="n">
-        <v>242.5353624779755</v>
+        <v>242.535362477976</v>
       </c>
       <c r="K33" t="n">
-        <v>242.5353624779755</v>
+        <v>242.535362477976</v>
       </c>
       <c r="L33" t="n">
-        <v>733.2676953217267</v>
+        <v>242.535362477976</v>
       </c>
       <c r="M33" t="n">
-        <v>1325.286049573854</v>
+        <v>834.5537167301044</v>
       </c>
       <c r="N33" t="n">
-        <v>1947.38201297319</v>
+        <v>1456.649680129442</v>
       </c>
       <c r="O33" t="n">
-        <v>2494.258487973384</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P33" t="n">
-        <v>2518.486150461856</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q33" t="n">
         <v>2518.486150461856</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>749.780203153487</v>
+        <v>699.9418468488439</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8440202255802</v>
+        <v>699.9418468488439</v>
       </c>
       <c r="D34" t="n">
-        <v>430.7273808132444</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="E34" t="n">
-        <v>382.6110126110869</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F34" t="n">
-        <v>235.7210651131766</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G34" t="n">
         <v>235.7210651131766</v>
@@ -6856,52 +6856,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V34" t="n">
-        <v>1669.627968062235</v>
+        <v>1619.789611757592</v>
       </c>
       <c r="W34" t="n">
-        <v>1380.210798025274</v>
+        <v>1330.372441720631</v>
       </c>
       <c r="X34" t="n">
-        <v>1152.221247127257</v>
+        <v>1102.382890822614</v>
       </c>
       <c r="Y34" t="n">
-        <v>931.4286679837268</v>
+        <v>881.5903116790836</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E35" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160725</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507207</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384034</v>
       </c>
       <c r="L35" t="n">
         <v>1462.494387944179</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883218</v>
       </c>
       <c r="N35" t="n">
         <v>2920.783927800325</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
@@ -7014,28 +7014,28 @@
         <v>94.88738072612972</v>
       </c>
       <c r="J36" t="n">
-        <v>242.535362477976</v>
+        <v>94.88738072612972</v>
       </c>
       <c r="K36" t="n">
-        <v>242.535362477976</v>
+        <v>425.396123289489</v>
       </c>
       <c r="L36" t="n">
-        <v>733.267695321728</v>
+        <v>699.3689196509997</v>
       </c>
       <c r="M36" t="n">
-        <v>1325.286049573856</v>
+        <v>699.3689196509997</v>
       </c>
       <c r="N36" t="n">
-        <v>1325.286049573856</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.162524574052</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P36" t="n">
-        <v>2291.746043000128</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q36" t="n">
-        <v>2522.307316985376</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>932.2078141341358</v>
+        <v>784.5128849845635</v>
       </c>
       <c r="C37" t="n">
-        <v>763.2716312062289</v>
+        <v>615.5767020566566</v>
       </c>
       <c r="D37" t="n">
-        <v>613.1549917938931</v>
+        <v>465.4600626443208</v>
       </c>
       <c r="E37" t="n">
-        <v>465.2418982115</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F37" t="n">
-        <v>318.3519507135896</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135896</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
@@ -7117,28 +7117,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S37" t="n">
-        <v>2395.816280934043</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T37" t="n">
-        <v>2395.816280934043</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U37" t="n">
-        <v>2106.74006724877</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V37" t="n">
-        <v>1852.055579042883</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W37" t="n">
-        <v>1562.638409005923</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="X37" t="n">
-        <v>1334.648858107905</v>
+        <v>1186.953928958333</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.856278964375</v>
+        <v>966.1613498148032</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7160,7 +7160,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127629</v>
@@ -7172,13 +7172,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
         <v>2234.298471234014</v>
@@ -7248,19 +7248,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5353624779756</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>242.5353624779756</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>733.2676953217269</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1325.286049573855</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N39" t="n">
         <v>1868.341358050533</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.7042115721531</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7680286442462</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6513892319105</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7382956495174</v>
+        <v>197.0659819528712</v>
       </c>
       <c r="F40" t="n">
-        <v>93.84834815160703</v>
+        <v>197.0659819528712</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160703</v>
+        <v>197.0659819528712</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7354,28 +7354,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.991460657679</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.312678372061</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.236464686788</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.551976480901</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.13480644394</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.145255545923</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3526764023928</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
         <v>93.84834815160703</v>
@@ -7409,25 +7409,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
         <v>4566.333620403613</v>
@@ -7485,31 +7485,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>94.88738072612962</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J42" t="n">
-        <v>94.88738072612962</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K42" t="n">
-        <v>94.88738072612962</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="L42" t="n">
-        <v>585.619713569881</v>
+        <v>733.2676953217267</v>
       </c>
       <c r="M42" t="n">
-        <v>1177.638067822009</v>
+        <v>1325.286049573854</v>
       </c>
       <c r="N42" t="n">
-        <v>1799.734031221345</v>
+        <v>1325.286049573854</v>
       </c>
       <c r="O42" t="n">
-        <v>2346.610506221539</v>
+        <v>1872.162524574048</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2291.746043000124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>746.1252502501684</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>577.1890673222615</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D43" t="n">
-        <v>427.0724279099258</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E43" t="n">
-        <v>279.1593343275326</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F43" t="n">
-        <v>132.2693868296223</v>
+        <v>179.2695845217828</v>
       </c>
       <c r="G43" t="n">
-        <v>132.2693868296223</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
@@ -7591,28 +7591,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2209.733717050076</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1920.657503364803</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1665.973015158916</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1376.555845121956</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>1148.566294223938</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>927.7737150804081</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715099</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108349</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510105</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720497</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399038</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556116</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148068</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112159</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798343</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596214</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.28428657842</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570209</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226638</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956524</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695444</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>95.6157353563742</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2623778840289</v>
+        <v>208.6365868072519</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1871500552495</v>
+        <v>208.6365868072519</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1871500552495</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="M45" t="n">
-        <v>913.3224749223345</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.920438476941</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.830168716228</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.453318211297</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.453318211297</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>789.7909149242395</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8547319963326</v>
+        <v>485.566145539011</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7380925839969</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E46" t="n">
-        <v>322.8249990016038</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9350515036934</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9350515036934</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9350515036934</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834098</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2253.398394694676</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2253.398394694676</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1964.323168038874</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1709.638679832987</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1420.221509796027</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>1192.231958898009</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>971.4393797544792</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8693,10 +8693,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>51.31264782910091</v>
       </c>
       <c r="M11" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>51.31264782909193</v>
       </c>
       <c r="N14" t="n">
-        <v>51.31264782909079</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>51.31264782908255</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>51.31264782908249</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>51.31264782908357</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>51.3126478290834</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>51.31264782908255</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782909085</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>51.31264782908283</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>51.31264782908238</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>51.31264782909034</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>149.2783279571212</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>35.07410733342535</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440913</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>131.1791377701998</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>135.6169189911477</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>84.16945386597433</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>81.80457674440895</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>267.9592143778833</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>13.79427727960689</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>67.18075159108344</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>127.5052245859292</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>40.30719839871578</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>67.18075159108344</v>
       </c>
       <c r="S25" t="n">
-        <v>66.27365539641318</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>50.77143633060314</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>148.0782321408248</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>84.16945386597131</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.6579715062075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>98.79875812643331</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>202.7976705822285</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>89.50146619888065</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>148.078232140822</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>120.0731090731114</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>143.3016600672236</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>162.7796056151019</v>
       </c>
       <c r="H43" t="n">
-        <v>102.4171615007188</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>157.8125473841246</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.74112246243892</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771333.2212019769</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771333.2212019771</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771333.221201977</v>
+        <v>771333.2212019769</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771333.221201977</v>
+        <v>771333.2212019769</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771333.221201977</v>
+        <v>771333.2212019771</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771333.2212019771</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771333.221201977</v>
+        <v>771333.2212019769</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771333.221201977</v>
+        <v>771333.2212019769</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771333.2212019769</v>
+        <v>771333.2212019771</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771058.8774605922</v>
+        <v>771333.221201977</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645346.3816948475</v>
+        <v>645346.3816948473</v>
       </c>
       <c r="F2" t="n">
         <v>645346.3816948476</v>
       </c>
       <c r="G2" t="n">
+        <v>645346.3816948473</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645346.381694847</v>
+      </c>
+      <c r="I2" t="n">
         <v>645346.3816948474</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>645346.3816948475</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645346.3816948471</v>
+      </c>
+      <c r="L2" t="n">
         <v>645346.3816948474</v>
       </c>
-      <c r="I2" t="n">
-        <v>645346.3816948476</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
+        <v>645346.3816948471</v>
+      </c>
+      <c r="N2" t="n">
         <v>645346.3816948474</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>645346.3816948475</v>
       </c>
-      <c r="L2" t="n">
-        <v>645346.3816948473</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645346.3816948473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645346.3816948477</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645346.3816948473</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645346.3816948475</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545125</v>
+        <v>936509.6654545106</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.437811079085804e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>1.060680460795993e-09</v>
+        <v>1.237460537595325e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925918</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901384</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
+        <v>5781.971894855255</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5781.971894855142</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5781.971894854999</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5781.971894854998</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5781.971894855013</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5781.971894855031</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5781.971894855006</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5781.971894855003</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5781.971894855044</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5781.971894855116</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5781.971894855161</v>
+      </c>
+      <c r="P4" t="n">
         <v>5781.971894855114</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5781.971894855114</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5781.971894855002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5781.971894855002</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5781.971894855011</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5781.971894855118</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5781.971894855114</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5781.97189485512</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5781.971894854996</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5781.971894855107</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5781.971894855097</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
         <v>100930.0394572386</v>
@@ -26491,13 +26491,13 @@
         <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572386</v>
@@ -26509,7 +26509,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-217058.0473142592</v>
+        <v>-217058.0473142586</v>
       </c>
       <c r="C6" t="n">
-        <v>372909.8319002857</v>
+        <v>372909.8319002853</v>
       </c>
       <c r="D6" t="n">
-        <v>372909.8319002858</v>
+        <v>372909.8319002855</v>
       </c>
       <c r="E6" t="n">
-        <v>-397875.2951117586</v>
+        <v>-397911.1920936214</v>
       </c>
       <c r="F6" t="n">
-        <v>538634.3703427539</v>
+        <v>538598.4733608882</v>
       </c>
       <c r="G6" t="n">
-        <v>538634.3703427527</v>
+        <v>538598.4733608881</v>
       </c>
       <c r="H6" t="n">
-        <v>538634.3703427538</v>
+        <v>538598.473360889</v>
       </c>
       <c r="I6" t="n">
-        <v>538634.3703427541</v>
+        <v>538598.4733608895</v>
       </c>
       <c r="J6" t="n">
-        <v>362211.151150162</v>
+        <v>362175.2541682967</v>
       </c>
       <c r="K6" t="n">
-        <v>538634.3703427538</v>
+        <v>538598.4733608892</v>
       </c>
       <c r="L6" t="n">
-        <v>538634.3703427536</v>
+        <v>538598.4733608895</v>
       </c>
       <c r="M6" t="n">
-        <v>414327.1589526153</v>
+        <v>414291.261970752</v>
       </c>
       <c r="N6" t="n">
-        <v>538634.370342755</v>
+        <v>538598.4733608904</v>
       </c>
       <c r="O6" t="n">
-        <v>538634.3703427536</v>
+        <v>538598.4733608895</v>
       </c>
       <c r="P6" t="n">
-        <v>532890.944072712</v>
+        <v>538598.4733608895</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26741,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716384</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26759,13 +26759,13 @@
         <v>1358.041048716387</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716387</v>
@@ -26777,7 +26777,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992993</v>
+        <v>980.2973844992969</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.873986957042871e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,16 +26990,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>-5.033416187043658e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>247.1736660716509</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>85.90546997327647</v>
+        <v>157.7848504166384</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>177.7727470222029</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>232.7543302155482</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753813</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>91.85549473416694</v>
       </c>
       <c r="C8" t="n">
-        <v>128.1462489499437</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>23.70481751979025</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030429</v>
       </c>
     </row>
     <row r="11">
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28788,7 +28788,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.813642415999535e-12</v>
       </c>
     </row>
     <row r="20">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377418</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122275</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704056</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874058</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830421</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364251</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293295</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229594</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086939</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687513</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148598</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987158</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854255</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665716</v>
       </c>
       <c r="U11" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901934</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540901</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088186</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735814</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848218</v>
       </c>
       <c r="L12" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745716</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504291</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927627</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>153.7812479945322</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286947</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436711</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862153</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821091</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013751</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291839</v>
       </c>
       <c r="H13" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548564</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284915</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273333</v>
+        <v>173.139102227333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900882</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640613</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265016</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416869</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465957</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282424</v>
+        <v>296.186526428242</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561739</v>
       </c>
       <c r="R13" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860858</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851322</v>
       </c>
       <c r="T13" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551968</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704641</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>186.8264897865967</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>326.9083219859716</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L18" t="n">
-        <v>152.1929830599391</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504309</v>
@@ -32327,16 +32327,16 @@
         <v>759.7214730927647</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426213</v>
+        <v>422.3544583169052</v>
       </c>
       <c r="P18" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.25758340862166</v>
@@ -32555,10 +32555,10 @@
         <v>471.688653684823</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>729.2396271236867</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927647</v>
@@ -32567,13 +32567,13 @@
         <v>694.9967242426213</v>
       </c>
       <c r="P21" t="n">
-        <v>189.7077409415917</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>372.8719498286956</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.25758340862166</v>
@@ -32783,10 +32783,10 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735821</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>471.688653684823</v>
@@ -32801,7 +32801,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>358.3392732200391</v>
+        <v>506.4291208739014</v>
       </c>
       <c r="P24" t="n">
         <v>557.796143198246</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>578.9253887485529</v>
+        <v>541.8219741960793</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982453</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293309</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I30" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>471.6886536848224</v>
+        <v>151.4800422544239</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O30" t="n">
-        <v>152.7317201414746</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K32" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U32" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H33" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I33" t="n">
-        <v>100.5719078530531</v>
+        <v>100.5719078530532</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426204</v>
+        <v>558.4464241627174</v>
       </c>
       <c r="P33" t="n">
-        <v>158.4467937663218</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436713</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S33" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,19 +33734,19 @@
         <v>100.5719078530532</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735821</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745732</v>
+        <v>415.2945781248345</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426213</v>
@@ -33758,7 +33758,7 @@
         <v>372.8719498286956</v>
       </c>
       <c r="R36" t="n">
-        <v>177.5027743785001</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862166</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,43 +33965,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>679.8824277163418</v>
+        <v>347.0847408589324</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,43 +34202,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>343.2692038529434</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>369.0121856635285</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>242.7853424804494</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>479.6444630806901</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607195</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380615</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955388</v>
       </c>
       <c r="M11" t="n">
-        <v>779.6000841311495</v>
+        <v>728.2874363020568</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263685</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870071</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134817</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404103</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845836</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104628</v>
       </c>
       <c r="L12" t="n">
-        <v>49.32163785977567</v>
+        <v>495.6892250946974</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284108</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094294</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>11.1850035500878</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426732</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970714</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066027</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642053</v>
       </c>
       <c r="L13" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243774</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883422</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209155</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606354</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931354</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044795</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>779.60008413115</v>
       </c>
       <c r="N14" t="n">
-        <v>796.0449487554608</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053121</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>48.27211000672254</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>184.3120775415272</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>282.3190661607207</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380633</v>
+        <v>525.6867728671458</v>
       </c>
       <c r="L17" t="n">
         <v>625.7775560664402</v>
@@ -35902,7 +35902,7 @@
         <v>553.8443926134837</v>
       </c>
       <c r="Q17" t="n">
-        <v>418.5673812694946</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R17" t="n">
         <v>127.3573607845846</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L18" t="n">
-        <v>13.63860328006488</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284126</v>
@@ -35975,16 +35975,16 @@
         <v>628.3797610094314</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981769</v>
+        <v>279.7582138724608</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>474.3741250380633</v>
       </c>
       <c r="L20" t="n">
-        <v>677.090203895523</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M20" t="n">
         <v>728.2874363020592</v>
@@ -36136,7 +36136,7 @@
         <v>689.7596327870094</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134837</v>
+        <v>605.1570404425662</v>
       </c>
       <c r="Q20" t="n">
         <v>367.2547334404118</v>
@@ -36203,10 +36203,10 @@
         <v>333.847214710464</v>
       </c>
       <c r="L21" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>587.1055932016684</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094314</v>
@@ -36215,13 +36215,13 @@
         <v>552.4004797981769</v>
       </c>
       <c r="P21" t="n">
-        <v>55.73333352726142</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>232.8901757426741</v>
       </c>
       <c r="R21" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607207</v>
+        <v>333.6317139898043</v>
       </c>
       <c r="K23" t="n">
         <v>474.3741250380633</v>
@@ -36364,7 +36364,7 @@
         <v>625.7775560664402</v>
       </c>
       <c r="M23" t="n">
-        <v>779.6000841311426</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N23" t="n">
         <v>744.732300926371</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069154</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>333.847214710464</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>215.7430287755947</v>
+        <v>363.832876429457</v>
       </c>
       <c r="P24" t="n">
         <v>423.8217357839158</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671458</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O26" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946982</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5836766652196</v>
+        <v>410.4802621127459</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R27" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L28" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020582</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R29" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>333.8472147104634</v>
+        <v>13.63860328006488</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O30" t="n">
-        <v>10.13547569703019</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R30" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L32" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M32" t="n">
-        <v>779.6000841311493</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263698</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812694946</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.049527853053107</v>
+        <v>1.04952785305322</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O33" t="n">
-        <v>552.400479798176</v>
+        <v>415.8501797182731</v>
       </c>
       <c r="P33" t="n">
-        <v>24.47238635199157</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R33" t="n">
-        <v>35.6830345797074</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L34" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>744.732300926371</v>
       </c>
       <c r="O35" t="n">
-        <v>741.0722806160918</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
         <v>553.8443926134837</v>
@@ -37327,7 +37327,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>1.04952785305322</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069154</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L36" t="n">
-        <v>495.689225094699</v>
+        <v>276.7401983449603</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O36" t="n">
         <v>552.4004797981769</v>
@@ -37406,7 +37406,7 @@
         <v>232.8901757426741</v>
       </c>
       <c r="R36" t="n">
-        <v>31.82327041453611</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>779.6000841311486</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>548.5407156330085</v>
+        <v>215.7430287755991</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37707,19 +37707,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053121</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>209.2947964386132</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>229.030411577507</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37944,19 +37944,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>115.9477158137827</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>337.5104291586717</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
